--- a/biology/Botanique/Roelof_Benjamin_van_den_Bosch/Roelof_Benjamin_van_den_Bosch.xlsx
+++ b/biology/Botanique/Roelof_Benjamin_van_den_Bosch/Roelof_Benjamin_van_den_Bosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roelof Benjamin van den Bosch (1810-1862) est un botaniste hollandais spécialisé dans les fougères et les mousses.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bryologia Javanica seu descriptio muscorum frondosorum Archipelagi Indici iconibus illustrata - auctoribus F. Dozy et J. H. Molkenboer. Post mortem auctorum edentibus R. B. van den Bosch et C. M. van den Sande Lacoste - E. J. Brill in Lugduni-Batavorum - Leyde, 1855-1870 Téléchargeable sur Biblioteca Digital
 Prodromus florae batavae - Editio altera. Nieuwe lijst der Nederlandsche phanerogamen en vaatkryptogamen. Uitgegeven door de Nederlandsche Botanische Vereniging. Nimègue, F.E. Macdonald, 1901-1916
@@ -544,7 +558,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Vandenboschia de la famille des Hyménophyllacées lui a été dédié.
 </t>
